--- a/Data/ei_iw_geo_mapping.xlsx
+++ b/Data/ei_iw_geo_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\Regioinvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9BB80-2F99-427E-A789-40DF260792F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC267262-51DF-4B00-B576-A3A075C4065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="316">
   <si>
     <t>AE</t>
   </si>
@@ -1355,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8BF03-FE90-413A-BA68-8F3BBE4EDF18}">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5428,228 +5428,228 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="B240" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="C240" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="D240" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="E240" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B241" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C241" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D241" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E241" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C243" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D243" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E243" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B246" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C246" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D246" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E246" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B247" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C247" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D247" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E247" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B248" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C248" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D248" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E248" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B249" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C249" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D249" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E249" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B250" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C250" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D250" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E250" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B253" t="s">
         <v>248</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B254" t="s">
         <v>248</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B255" t="s">
         <v>248</v>
@@ -5700,534 +5700,534 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B256" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C256" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D256" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E256" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B257" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C257" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D257" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E257" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B258" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C258" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D258" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E258" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B260" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C260" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D260" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E260" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B261" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C261" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D261" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E261" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B263" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C263" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D263" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E263" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="B264" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="C264" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="D264" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="E264" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="B265" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C265" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="D265" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="E265" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B266" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C266" t="s">
         <v>247</v>
       </c>
       <c r="D266" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E266" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B267" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C267" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D267" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E267" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B269" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C269" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D269" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E269" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D270" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="E270" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B271" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C271" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D271" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E271" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B272" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C272" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D272" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E272" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B273" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="C273" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D273" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="E273" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B274" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="C274" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D274" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="E274" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B275" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C275" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D275" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E275" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B276" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C276" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D276" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E276" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B277" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C277" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D277" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E277" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B278" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C278" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="D278" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E278" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B279" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C279" t="s">
         <v>247</v>
       </c>
       <c r="D279" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E279" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B280" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C280" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="D280" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E280" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B283" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C283" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D283" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="E283" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B284" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C284" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D284" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E284" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B286" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C286" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="D286" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="E286" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B287" t="s">
         <v>248</v>
@@ -6244,58 +6244,58 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B288" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="C288" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="D288" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="E288" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B289" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="C289" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="D289" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="E289" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B290" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C290" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D290" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="E290" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B291" t="s">
         <v>285</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B292" t="s">
         <v>285</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B293" t="s">
         <v>285</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B294" t="s">
         <v>285</v>
@@ -6363,41 +6363,41 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B295" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C295" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D295" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E295" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B296" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C296" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D296" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E296" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B297" t="s">
         <v>285</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B298" t="s">
         <v>285</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B299" t="s">
         <v>285</v>
@@ -6448,109 +6448,109 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B300" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C300" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D300" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E300" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B301" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C301" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="D301" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E301" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C302" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="D302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B303" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C303" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D303" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E303" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B304" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C304" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D304" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E304" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B305" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="C305" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="D305" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="E305" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B306" t="s">
         <v>248</v>
@@ -6567,69 +6567,86 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B307" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="C307" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D307" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="E307" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B308" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C308" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="D308" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E308" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B309" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C309" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D309" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E309" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
+        <v>305</v>
+      </c>
+      <c r="B310" t="s">
+        <v>305</v>
+      </c>
+      <c r="C310" t="s">
+        <v>305</v>
+      </c>
+      <c r="D310" t="s">
+        <v>305</v>
+      </c>
+      <c r="E310" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>306</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>306</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C311" t="s">
         <v>306</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D311" t="s">
         <v>306</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E311" t="s">
         <v>306</v>
       </c>
     </row>

--- a/Data/ei_iw_geo_mapping.xlsx
+++ b/Data/ei_iw_geo_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\Regioinvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC267262-51DF-4B00-B576-A3A075C4065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23EEE7-7784-47A6-8BB3-16CF0CB6D4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="338">
   <si>
     <t>AE</t>
   </si>
@@ -984,6 +984,72 @@
   </si>
   <si>
     <t>eutro</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>UG</t>
   </si>
 </sst>
 </file>
@@ -1355,11 +1421,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8BF03-FE90-413A-BA68-8F3BBE4EDF18}">
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1399,347 +1463,347 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1756,7 +1820,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -1773,7 +1837,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1790,7 +1854,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1807,7 +1871,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1824,7 +1888,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1841,7 +1905,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1858,7 +1922,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -1875,7 +1939,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -1892,7 +1956,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1909,7 +1973,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -1926,7 +1990,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -1943,7 +2007,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -1960,7 +2024,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -1977,7 +2041,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -1994,7 +2058,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2011,7 +2075,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -2028,7 +2092,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -2045,7 +2109,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -2062,7 +2126,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -2079,7 +2143,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -2096,7 +2160,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -2113,7 +2177,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -2130,7 +2194,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -2147,7 +2211,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -2164,7 +2228,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -2181,7 +2245,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -2198,160 +2262,160 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
@@ -2368,7 +2432,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
@@ -2385,7 +2449,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -2402,7 +2466,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
@@ -2419,7 +2483,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
@@ -2436,7 +2500,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
         <v>50</v>
@@ -2453,7 +2517,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
@@ -2470,245 +2534,245 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
         <v>70</v>
@@ -2725,7 +2789,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
@@ -2742,7 +2806,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
         <v>70</v>
@@ -2759,7 +2823,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
         <v>70</v>
@@ -2776,7 +2840,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
         <v>70</v>
@@ -2793,7 +2857,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
         <v>70</v>
@@ -2810,7 +2874,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -2827,7 +2891,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B87" t="s">
         <v>70</v>
@@ -2844,7 +2908,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
         <v>70</v>
@@ -2861,7 +2925,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B89" t="s">
         <v>70</v>
@@ -2878,7 +2942,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
         <v>70</v>
@@ -2895,7 +2959,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
         <v>70</v>
@@ -2912,7 +2976,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B92" t="s">
         <v>70</v>
@@ -2929,7 +2993,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
         <v>70</v>
@@ -2946,7 +3010,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
         <v>70</v>
@@ -2963,7 +3027,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
         <v>70</v>
@@ -2980,7 +3044,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
         <v>70</v>
@@ -2997,7 +3061,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
         <v>70</v>
@@ -3014,7 +3078,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B98" t="s">
         <v>70</v>
@@ -3031,7 +3095,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B99" t="s">
         <v>70</v>
@@ -3048,7 +3112,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B100" t="s">
         <v>70</v>
@@ -3065,7 +3129,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
         <v>70</v>
@@ -3082,7 +3146,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
         <v>70</v>
@@ -3099,7 +3163,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B103" t="s">
         <v>70</v>
@@ -3116,7 +3180,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B104" t="s">
         <v>70</v>
@@ -3133,7 +3197,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B105" t="s">
         <v>70</v>
@@ -3150,7 +3214,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
         <v>70</v>
@@ -3167,7 +3231,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B107" t="s">
         <v>70</v>
@@ -3184,7 +3248,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B108" t="s">
         <v>70</v>
@@ -3201,7 +3265,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B109" t="s">
         <v>70</v>
@@ -3218,7 +3282,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
         <v>70</v>
@@ -3235,7 +3299,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B111" t="s">
         <v>70</v>
@@ -3252,976 +3316,976 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D112" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E112" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E113" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C114" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D114" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C116" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D117" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E117" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D118" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C119" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D120" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E120" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D121" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E121" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C122" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E122" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="D123" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="E123" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C124" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="D124" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E124" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="D125" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E125" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="C126" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="D126" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="E126" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C127" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D127" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E127" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E128" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D129" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E129" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="D130" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="E130" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="C131" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="D131" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="E131" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="C132" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="D132" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="E132" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="C133" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D133" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="E133" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D134" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="E134" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D136" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E136" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E137" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="C138" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="D138" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="E138" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C139" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="D139" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="E139" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="C140" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="D140" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="E140" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="C141" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="D141" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="E141" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D142" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E142" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="C143" t="s">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="D143" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B144" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C144" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E144" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C145" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D145" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E145" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C146" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D146" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E146" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C147" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D147" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E147" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C148" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D148" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E148" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="C149" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="D149" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="E149" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="C150" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="D150" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="E150" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B151" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="D151" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B152" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="C152" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="D152" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="E152" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="B153" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="C153" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D153" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="E153" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="D154" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="E154" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B155" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="E155" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B156" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C156" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D156" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E156" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B157" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C157" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D157" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E157" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C158" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="D158" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E158" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B159" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="C159" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="D159" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="E159" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="D160" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="E160" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="C161" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="D161" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="E161" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="C162" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="D162" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="E162" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="C163" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="D163" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="E163" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="C164" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="D164" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="E164" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="C165" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="D165" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="E165" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C166" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D166" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E166" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C168" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="D168" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E168" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B169" t="s">
         <v>155</v>
@@ -4238,7 +4302,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B170" t="s">
         <v>155</v>
@@ -4255,7 +4319,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B171" t="s">
         <v>155</v>
@@ -4272,7 +4336,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B172" t="s">
         <v>155</v>
@@ -4289,7 +4353,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B173" t="s">
         <v>155</v>
@@ -4306,7 +4370,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B174" t="s">
         <v>155</v>
@@ -4323,7 +4387,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B175" t="s">
         <v>155</v>
@@ -4340,7 +4404,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B176" t="s">
         <v>155</v>
@@ -4357,7 +4421,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B177" t="s">
         <v>155</v>
@@ -4374,7 +4438,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B178" t="s">
         <v>155</v>
@@ -4391,7 +4455,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B179" t="s">
         <v>155</v>
@@ -4408,7 +4472,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B180" t="s">
         <v>155</v>
@@ -4425,7 +4489,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B181" t="s">
         <v>155</v>
@@ -4442,7 +4506,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B182" t="s">
         <v>155</v>
@@ -4459,7 +4523,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B183" t="s">
         <v>155</v>
@@ -4476,7 +4540,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B184" t="s">
         <v>155</v>
@@ -4493,7 +4557,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B185" t="s">
         <v>155</v>
@@ -4510,7 +4574,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B186" t="s">
         <v>155</v>
@@ -4527,7 +4591,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B187" t="s">
         <v>155</v>
@@ -4544,7 +4608,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B188" t="s">
         <v>155</v>
@@ -4561,7 +4625,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B189" t="s">
         <v>155</v>
@@ -4578,7 +4642,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B190" t="s">
         <v>155</v>
@@ -4595,7 +4659,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B191" t="s">
         <v>155</v>
@@ -4612,7 +4676,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B192" t="s">
         <v>155</v>
@@ -4629,7 +4693,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B193" t="s">
         <v>155</v>
@@ -4646,7 +4710,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B194" t="s">
         <v>155</v>
@@ -4663,7 +4727,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B195" t="s">
         <v>155</v>
@@ -4680,7 +4744,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B196" t="s">
         <v>155</v>
@@ -4697,7 +4761,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B197" t="s">
         <v>155</v>
@@ -4714,1475 +4778,1475 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B198" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="C198" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D198" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E198" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B199" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C199" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D199" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E199" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B200" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C200" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="D200" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="E200" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B201" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C201" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="D201" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="E201" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B202" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C202" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="D202" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="E202" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B203" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C203" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="D203" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="E203" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B204" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C204" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D204" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="E204" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B205" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="C205" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="D205" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="E205" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B206" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="C206" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D206" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E206" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="C207" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="D207" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="E207" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B208" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C208" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D208" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E208" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B209" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C209" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D209" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E209" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C210" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D210" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E210" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B211" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C211" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D211" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E211" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B212" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C212" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="D212" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E212" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B213" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D213" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E213" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B214" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C214" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D214" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E214" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B215" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C215" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D215" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E215" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B216" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C216" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D216" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E216" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B217" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C217" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="D217" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E217" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B218" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C218" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D218" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E218" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B219" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C219" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D219" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E219" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B220" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C220" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="D220" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E220" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B221" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C221" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D221" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E221" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="B222" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="C222" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="D222" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="E222" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B223" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C223" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D223" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E223" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B224" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C224" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D224" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E224" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="B225" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="C225" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D225" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="E225" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B226" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C226" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D226" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E226" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B227" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C227" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D227" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E227" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B228" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C228" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D228" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E228" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B229" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C229" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D229" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E229" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B230" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C230" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D230" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E230" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B231" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C231" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D231" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E231" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B232" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C232" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D232" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E232" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B233" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C233" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D233" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E233" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C234" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D234" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E234" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="B235" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="C235" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D235" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="E235" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B236" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C236" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D236" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="E236" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B237" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C237" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D237" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E237" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="B238" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="C238" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D238" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="E238" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="B239" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="C239" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D239" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="E239" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>311</v>
+        <v>221</v>
       </c>
       <c r="B240" t="s">
-        <v>311</v>
+        <v>221</v>
       </c>
       <c r="C240" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="D240" t="s">
-        <v>311</v>
+        <v>221</v>
       </c>
       <c r="E240" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C241" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D241" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E241" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B242" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C242" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D242" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E242" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="C243" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D243" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="E243" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C244" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D244" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E244" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B245" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C245" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D245" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E245" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C246" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D246" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E246" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C247" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D247" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E247" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B248" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C248" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D248" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E248" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B249" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C249" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D249" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E249" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C250" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D250" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E250" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B251" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C251" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D251" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E251" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D252" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E252" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B253" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C253" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D253" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E253" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B254" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C254" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D254" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E254" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B255" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C255" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D255" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="B256" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="C256" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="D256" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="E256" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C257" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D257" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E257" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C258" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D258" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E258" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B259" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C259" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D259" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E259" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B260" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C260" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D260" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E260" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B261" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C261" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D261" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E261" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B262" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C262" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D262" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E262" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B263" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C263" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D263" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E263" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="B264" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="C264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D264" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="E264" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="B265" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="C265" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="D265" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="E265" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B266" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C266" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D266" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E266" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B267" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C267" t="s">
         <v>247</v>
       </c>
       <c r="D267" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E267" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B268" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C268" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D268" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E268" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B269" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C269" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D269" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E269" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B270" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C270" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D270" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E270" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B271" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C271" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D271" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E271" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B272" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C272" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D272" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E272" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B273" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C273" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D273" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E273" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B274" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C274" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D274" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E274" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B275" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C275" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D275" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E275" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B276" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C276" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D276" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E276" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B277" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C277" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D277" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E277" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B278" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C278" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D278" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E278" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B279" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C279" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D279" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E279" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B280" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C280" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D280" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E280" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B281" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="C281" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D281" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="E281" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="B282" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="C282" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="D282" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="E282" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B283" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C283" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D283" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E283" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B284" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C284" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="D284" t="s">
         <v>247</v>
@@ -6193,460 +6257,834 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="B285" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="C285" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="D285" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="E285" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B286" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C286" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D286" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="E286" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B287" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C287" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D287" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E287" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B288" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C288" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D288" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E288" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B289" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="C289" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="D289" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="E289" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B290" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C290" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D290" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="E290" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B291" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C291" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D291" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="E291" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="B292" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="C292" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D292" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="E292" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B293" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C293" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D293" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="E293" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B294" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C294" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D294" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E294" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B295" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C295" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D295" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E295" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="B296" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="C296" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="D296" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="E296" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B297" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C297" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D297" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E297" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B298" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C298" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D298" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E298" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B299" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C299" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D299" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E299" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="B300" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="C300" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D300" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="E300" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B301" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C301" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="D301" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="E301" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B302" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C302" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D302" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E302" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B303" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C303" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D303" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E303" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B304" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C304" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D304" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E304" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B305" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C305" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D305" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="E305" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B306" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C306" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D306" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="E306" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B307" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C307" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="D307" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="E307" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B308" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="C308" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D308" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="E308" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B309" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="C309" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="D309" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="E309" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="B310" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="C310" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="D310" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="E310" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
+        <v>283</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+      <c r="C311" t="s">
+        <v>311</v>
+      </c>
+      <c r="D311" t="s">
+        <v>311</v>
+      </c>
+      <c r="E311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>284</v>
+      </c>
+      <c r="B312" t="s">
+        <v>247</v>
+      </c>
+      <c r="C312" t="s">
+        <v>247</v>
+      </c>
+      <c r="D312" t="s">
+        <v>247</v>
+      </c>
+      <c r="E312" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>285</v>
+      </c>
+      <c r="B313" t="s">
+        <v>285</v>
+      </c>
+      <c r="C313" t="s">
+        <v>285</v>
+      </c>
+      <c r="D313" t="s">
+        <v>285</v>
+      </c>
+      <c r="E313" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>286</v>
+      </c>
+      <c r="B314" t="s">
+        <v>285</v>
+      </c>
+      <c r="C314" t="s">
+        <v>285</v>
+      </c>
+      <c r="D314" t="s">
+        <v>285</v>
+      </c>
+      <c r="E314" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>287</v>
+      </c>
+      <c r="B315" t="s">
+        <v>285</v>
+      </c>
+      <c r="C315" t="s">
+        <v>285</v>
+      </c>
+      <c r="D315" t="s">
+        <v>285</v>
+      </c>
+      <c r="E315" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>288</v>
+      </c>
+      <c r="B316" t="s">
+        <v>285</v>
+      </c>
+      <c r="C316" t="s">
+        <v>285</v>
+      </c>
+      <c r="D316" t="s">
+        <v>285</v>
+      </c>
+      <c r="E316" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>289</v>
+      </c>
+      <c r="B317" t="s">
+        <v>285</v>
+      </c>
+      <c r="C317" t="s">
+        <v>285</v>
+      </c>
+      <c r="D317" t="s">
+        <v>285</v>
+      </c>
+      <c r="E317" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>290</v>
+      </c>
+      <c r="B318" t="s">
+        <v>291</v>
+      </c>
+      <c r="C318" t="s">
+        <v>291</v>
+      </c>
+      <c r="D318" t="s">
+        <v>291</v>
+      </c>
+      <c r="E318" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>292</v>
+      </c>
+      <c r="B319" t="s">
+        <v>285</v>
+      </c>
+      <c r="C319" t="s">
+        <v>285</v>
+      </c>
+      <c r="D319" t="s">
+        <v>285</v>
+      </c>
+      <c r="E319" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>293</v>
+      </c>
+      <c r="B320" t="s">
+        <v>285</v>
+      </c>
+      <c r="C320" t="s">
+        <v>285</v>
+      </c>
+      <c r="D320" t="s">
+        <v>285</v>
+      </c>
+      <c r="E320" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>294</v>
+      </c>
+      <c r="B321" t="s">
+        <v>285</v>
+      </c>
+      <c r="C321" t="s">
+        <v>285</v>
+      </c>
+      <c r="D321" t="s">
+        <v>285</v>
+      </c>
+      <c r="E321" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>295</v>
+      </c>
+      <c r="B322" t="s">
+        <v>285</v>
+      </c>
+      <c r="C322" t="s">
+        <v>285</v>
+      </c>
+      <c r="D322" t="s">
+        <v>285</v>
+      </c>
+      <c r="E322" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>296</v>
+      </c>
+      <c r="B323" t="s">
+        <v>296</v>
+      </c>
+      <c r="C323" t="s">
+        <v>296</v>
+      </c>
+      <c r="D323" t="s">
+        <v>296</v>
+      </c>
+      <c r="E323" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>297</v>
+      </c>
+      <c r="B324" t="s">
+        <v>297</v>
+      </c>
+      <c r="C324" t="s">
+        <v>247</v>
+      </c>
+      <c r="D324" t="s">
+        <v>297</v>
+      </c>
+      <c r="E324" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>298</v>
+      </c>
+      <c r="B325" t="s">
+        <v>298</v>
+      </c>
+      <c r="C325" t="s">
+        <v>298</v>
+      </c>
+      <c r="D325" t="s">
+        <v>298</v>
+      </c>
+      <c r="E325" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>299</v>
+      </c>
+      <c r="B326" t="s">
+        <v>299</v>
+      </c>
+      <c r="C326" t="s">
+        <v>299</v>
+      </c>
+      <c r="D326" t="s">
+        <v>299</v>
+      </c>
+      <c r="E326" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>300</v>
+      </c>
+      <c r="B327" t="s">
+        <v>285</v>
+      </c>
+      <c r="C327" t="s">
+        <v>285</v>
+      </c>
+      <c r="D327" t="s">
+        <v>285</v>
+      </c>
+      <c r="E327" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>301</v>
+      </c>
+      <c r="B328" t="s">
+        <v>248</v>
+      </c>
+      <c r="C328" t="s">
+        <v>248</v>
+      </c>
+      <c r="D328" t="s">
+        <v>248</v>
+      </c>
+      <c r="E328" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>302</v>
+      </c>
+      <c r="B329" t="s">
+        <v>248</v>
+      </c>
+      <c r="C329" t="s">
+        <v>248</v>
+      </c>
+      <c r="D329" t="s">
+        <v>248</v>
+      </c>
+      <c r="E329" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>303</v>
+      </c>
+      <c r="B330" t="s">
+        <v>303</v>
+      </c>
+      <c r="C330" t="s">
+        <v>247</v>
+      </c>
+      <c r="D330" t="s">
+        <v>303</v>
+      </c>
+      <c r="E330" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>304</v>
+      </c>
+      <c r="B331" t="s">
+        <v>304</v>
+      </c>
+      <c r="C331" t="s">
+        <v>304</v>
+      </c>
+      <c r="D331" t="s">
+        <v>304</v>
+      </c>
+      <c r="E331" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>305</v>
+      </c>
+      <c r="B332" t="s">
+        <v>305</v>
+      </c>
+      <c r="C332" t="s">
+        <v>305</v>
+      </c>
+      <c r="D332" t="s">
+        <v>305</v>
+      </c>
+      <c r="E332" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>306</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B333" t="s">
         <v>306</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C333" t="s">
         <v>306</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D333" t="s">
         <v>306</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E333" t="s">
         <v>306</v>
       </c>
     </row>

--- a/Data/ei_iw_geo_mapping.xlsx
+++ b/Data/ei_iw_geo_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\Regioinvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23EEE7-7784-47A6-8BB3-16CF0CB6D4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93059AF5-79A6-4314-8FF1-84FDFB22EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="342">
   <si>
     <t>AE</t>
   </si>
@@ -1050,6 +1050,18 @@
   </si>
   <si>
     <t>UG</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>VC</t>
   </si>
 </sst>
 </file>
@@ -1421,9 +1433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8BF03-FE90-413A-BA68-8F3BBE4EDF18}">
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1446,381 +1460,381 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -1837,7 +1851,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1854,7 +1868,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1871,7 +1885,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1888,7 +1902,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1905,7 +1919,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1922,7 +1936,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -1939,7 +1953,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -1956,7 +1970,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1973,7 +1987,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -1990,7 +2004,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2007,7 +2021,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -2024,7 +2038,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -2041,7 +2055,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2058,7 +2072,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2075,7 +2089,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -2092,7 +2106,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -2109,7 +2123,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -2126,7 +2140,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -2143,7 +2157,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -2160,7 +2174,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -2177,7 +2191,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -2194,7 +2208,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -2211,7 +2225,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -2228,7 +2242,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -2245,7 +2259,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -2262,7 +2276,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -2279,7 +2293,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -2296,7 +2310,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -2313,7 +2327,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -2330,7 +2344,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -2347,92 +2361,92 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
@@ -2449,7 +2463,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -2466,7 +2480,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
@@ -2483,7 +2497,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
@@ -2500,7 +2514,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>50</v>
@@ -2517,7 +2531,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
@@ -2534,7 +2548,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
@@ -2551,7 +2565,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
         <v>50</v>
@@ -2568,7 +2582,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
@@ -2585,7 +2599,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -2602,7 +2616,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
@@ -2619,7 +2633,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
@@ -2636,7 +2650,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
         <v>50</v>
@@ -2653,143 +2667,143 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="E74" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>323</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>323</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>323</v>
       </c>
       <c r="E75" t="s">
-        <v>65</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
@@ -2806,7 +2820,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
         <v>70</v>
@@ -2823,7 +2837,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
         <v>70</v>
@@ -2840,7 +2854,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
         <v>70</v>
@@ -2857,7 +2871,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
         <v>70</v>
@@ -2874,7 +2888,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -2891,7 +2905,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
         <v>70</v>
@@ -2908,7 +2922,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" t="s">
         <v>70</v>
@@ -2925,7 +2939,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
         <v>70</v>
@@ -2942,7 +2956,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
         <v>70</v>
@@ -2959,7 +2973,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
         <v>70</v>
@@ -2976,7 +2990,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
         <v>70</v>
@@ -2993,7 +3007,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
         <v>70</v>
@@ -3010,7 +3024,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
         <v>70</v>
@@ -3027,7 +3041,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
         <v>70</v>
@@ -3044,7 +3058,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
         <v>70</v>
@@ -3061,7 +3075,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
         <v>70</v>
@@ -3078,7 +3092,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
         <v>70</v>
@@ -3095,7 +3109,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
         <v>70</v>
@@ -3112,7 +3126,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
         <v>70</v>
@@ -3129,7 +3143,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s">
         <v>70</v>
@@ -3146,7 +3160,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s">
         <v>70</v>
@@ -3163,7 +3177,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103" t="s">
         <v>70</v>
@@ -3180,7 +3194,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
         <v>70</v>
@@ -3197,7 +3211,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" t="s">
         <v>70</v>
@@ -3214,7 +3228,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" t="s">
         <v>70</v>
@@ -3231,7 +3245,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" t="s">
         <v>70</v>
@@ -3248,7 +3262,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
         <v>70</v>
@@ -3265,7 +3279,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
         <v>70</v>
@@ -3282,7 +3296,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
         <v>70</v>
@@ -3299,7 +3313,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B111" t="s">
         <v>70</v>
@@ -3316,7 +3330,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s">
         <v>70</v>
@@ -3333,7 +3347,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" t="s">
         <v>70</v>
@@ -3350,7 +3364,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" t="s">
         <v>70</v>
@@ -3367,7 +3381,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
         <v>70</v>
@@ -3384,7 +3398,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116" t="s">
         <v>70</v>
@@ -3401,7 +3415,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" t="s">
         <v>70</v>
@@ -3418,7 +3432,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
         <v>70</v>
@@ -3435,7 +3449,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" t="s">
         <v>70</v>
@@ -3452,330 +3466,330 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D120" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="C123" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="D123" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="E123" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D124" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="E124" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C125" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="D125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D126" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E126" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C133" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="D133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B134" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="C134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D134" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="E134" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="C135" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="D135" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="E135" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="C138" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="D138" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="E138" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B139" t="s">
         <v>248</v>
@@ -3792,7 +3806,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B140" t="s">
         <v>248</v>
@@ -3809,7 +3823,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="B141" t="s">
         <v>248</v>
@@ -3826,350 +3840,350 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="B142" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D142" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="E142" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="B143" t="s">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="C143" t="s">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="D143" t="s">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="E143" t="s">
-        <v>324</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="C144" t="s">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="E144" t="s">
-        <v>132</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E149" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="B150" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="C150" t="s">
-        <v>309</v>
+        <v>126</v>
       </c>
       <c r="D150" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="E150" t="s">
-        <v>309</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="D151" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="E151" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="B152" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="C152" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="D152" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="E152" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="B153" t="s">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="C153" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>325</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B154" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="C154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D154" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="E154" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="B155" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="C155" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="D155" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="E155" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="C156" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D156" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="E156" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C157" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D157" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E157" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B158" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C158" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D158" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E158" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B159" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="C159" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="D159" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="E159" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B160" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="D160" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="E160" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B161" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C161" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D161" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E161" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B162" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C162" t="s">
         <v>247</v>
@@ -4183,143 +4197,143 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B163" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C163" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D163" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E163" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B164" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B165" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C165" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D165" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E165" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B166" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="C166" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="E166" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="C167" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="D167" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="E167" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C168" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="D168" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E168" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C170" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="D170" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E170" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B171" t="s">
         <v>155</v>
@@ -4336,7 +4350,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B172" t="s">
         <v>155</v>
@@ -4353,7 +4367,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B173" t="s">
         <v>155</v>
@@ -4370,7 +4384,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B174" t="s">
         <v>155</v>
@@ -4387,7 +4401,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B175" t="s">
         <v>155</v>
@@ -4404,7 +4418,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B176" t="s">
         <v>155</v>
@@ -4421,7 +4435,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B177" t="s">
         <v>155</v>
@@ -4438,7 +4452,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B178" t="s">
         <v>155</v>
@@ -4455,7 +4469,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B179" t="s">
         <v>155</v>
@@ -4472,7 +4486,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B180" t="s">
         <v>155</v>
@@ -4489,7 +4503,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B181" t="s">
         <v>155</v>
@@ -4506,7 +4520,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B182" t="s">
         <v>155</v>
@@ -4523,7 +4537,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B183" t="s">
         <v>155</v>
@@ -4540,7 +4554,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B184" t="s">
         <v>155</v>
@@ -4557,7 +4571,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B185" t="s">
         <v>155</v>
@@ -4574,7 +4588,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B186" t="s">
         <v>155</v>
@@ -4591,7 +4605,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B187" t="s">
         <v>155</v>
@@ -4608,7 +4622,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B188" t="s">
         <v>155</v>
@@ -4625,7 +4639,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B189" t="s">
         <v>155</v>
@@ -4642,7 +4656,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B190" t="s">
         <v>155</v>
@@ -4659,7 +4673,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B191" t="s">
         <v>155</v>
@@ -4676,7 +4690,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B192" t="s">
         <v>155</v>
@@ -4693,7 +4707,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B193" t="s">
         <v>155</v>
@@ -4710,7 +4724,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B194" t="s">
         <v>155</v>
@@ -4727,7 +4741,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B195" t="s">
         <v>155</v>
@@ -4744,7 +4758,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B196" t="s">
         <v>155</v>
@@ -4761,7 +4775,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B197" t="s">
         <v>155</v>
@@ -4778,7 +4792,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B198" t="s">
         <v>155</v>
@@ -4795,7 +4809,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B199" t="s">
         <v>155</v>
@@ -4812,7 +4826,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B200" t="s">
         <v>155</v>
@@ -4829,7 +4843,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B201" t="s">
         <v>155</v>
@@ -4846,7 +4860,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B202" t="s">
         <v>155</v>
@@ -4863,7 +4877,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B203" t="s">
         <v>155</v>
@@ -4880,7 +4894,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B204" t="s">
         <v>155</v>
@@ -4897,7 +4911,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B205" t="s">
         <v>155</v>
@@ -4914,7 +4928,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B206" t="s">
         <v>155</v>
@@ -4931,7 +4945,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B207" t="s">
         <v>155</v>
@@ -4948,1112 +4962,1112 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B208" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="C208" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D208" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E208" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B209" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C209" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D209" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E209" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B210" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C210" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="D210" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E210" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B211" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C211" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D211" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E211" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B212" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C212" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D212" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E212" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B213" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C213" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="D213" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E213" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B214" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C214" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D214" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E214" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B215" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="D215" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E215" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B216" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C216" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D216" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E216" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B217" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C217" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D217" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E217" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B218" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C218" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D218" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E218" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B219" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C219" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D219" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E219" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B220" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C220" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D220" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E220" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B221" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C221" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D221" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E221" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="B222" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="C222" t="s">
         <v>247</v>
       </c>
       <c r="D222" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="E222" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C223" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="D223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
       <c r="C224" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D224" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
       <c r="E224" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>327</v>
+        <v>208</v>
       </c>
       <c r="B225" t="s">
-        <v>327</v>
+        <v>208</v>
       </c>
       <c r="C225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D225" t="s">
-        <v>327</v>
+        <v>208</v>
       </c>
       <c r="E225" t="s">
-        <v>327</v>
+        <v>208</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="B226" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="C226" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="D226" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="E226" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="B228" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="C228" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D228" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="E228" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B229" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C229" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="D229" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E229" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C230" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D230" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E230" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B231" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C231" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D231" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E231" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C232" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="D232" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E232" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B233" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C233" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D233" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E233" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B234" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C234" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D234" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E234" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="C235" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D235" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="E235" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C236" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D236" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E236" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B237" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C237" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D237" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E237" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B238" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C238" t="s">
         <v>246</v>
       </c>
       <c r="D238" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E238" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="B239" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="C239" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="D239" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="E239" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B240" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C240" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="D240" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E240" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="B241" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="C241" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D241" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="E241" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="B242" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="C242" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="D242" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="E242" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="B243" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="C243" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D243" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="E243" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B244" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C244" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D244" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E244" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B245" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C245" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D245" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E245" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="B246" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="C246" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="D246" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="E246" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B247" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C247" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D247" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E247" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B248" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C248" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D248" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E248" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B249" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C249" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D249" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E249" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B250" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C250" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D250" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E250" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B251" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C251" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D251" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E251" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B252" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C252" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D252" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E252" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B253" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C253" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D253" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E253" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B254" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C254" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D254" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E254" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C255" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D255" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E255" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="B256" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="C256" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="D256" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="E256" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C257" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B258" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C258" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D258" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E258" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="B259" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="C259" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="D259" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="E259" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B260" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C260" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D260" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E260" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B261" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C261" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D261" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E261" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B262" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C262" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D262" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E262" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B263" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C263" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D263" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E263" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="B264" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="C264" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D264" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="E264" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B265" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C265" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D265" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E265" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B266" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C266" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D266" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E266" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="B267" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="C267" t="s">
         <v>247</v>
       </c>
       <c r="D267" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="E267" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B268" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C268" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D268" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E268" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B269" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C269" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D269" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E269" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B270" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C270" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D270" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E270" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B271" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C271" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D271" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E271" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B272" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C272" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D272" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E272" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B273" t="s">
         <v>248</v>
@@ -6070,132 +6084,132 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B274" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C274" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D274" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E274" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B275" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C275" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D275" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E275" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B276" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C276" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D276" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E276" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B277" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C277" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D277" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E277" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B278" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C278" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D278" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E278" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B279" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C279" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D279" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E279" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B280" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C280" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D280" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E280" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B281" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C281" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D281" t="s">
         <v>248</v>
@@ -6206,118 +6220,118 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="B282" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="C282" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="D282" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="E282" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B283" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C283" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D283" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E283" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B284" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C284" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D284" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E284" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B285" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="C285" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="D285" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E285" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B286" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C286" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D286" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E286" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B287" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C287" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D287" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E287" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="B288" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C288" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D288" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="E288" t="s">
         <v>247</v>
@@ -6325,466 +6339,466 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B289" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C289" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D289" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E289" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B290" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C290" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D290" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E290" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B291" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C291" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D291" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="E291" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="B292" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="C292" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D292" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="E292" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B293" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C293" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D293" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="E293" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B294" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C294" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D294" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E294" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="B295" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="C295" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D295" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="E295" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="B296" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="C296" t="s">
+        <v>268</v>
+      </c>
+      <c r="D296" t="s">
         <v>246</v>
       </c>
-      <c r="D296" t="s">
-        <v>335</v>
-      </c>
       <c r="E296" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B297" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C297" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D297" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E297" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B298" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C298" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D298" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E298" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="B299" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="C299" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D299" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="E299" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="B300" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="C300" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D300" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="E300" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B301" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C301" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="D301" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E301" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B302" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C302" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="D302" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E302" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="B303" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="C303" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="D303" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="E303" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B304" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C304" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D304" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E304" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B305" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C305" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D305" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E305" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B306" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C306" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D306" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E306" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B307" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C307" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D307" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E307" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B308" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C308" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="D308" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E308" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B309" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C309" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D309" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="E309" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B310" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="C310" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="D310" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="E310" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B311" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="C311" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="D311" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="E311" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B312" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C312" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D312" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E312" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="B313" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="C313" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="D313" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="E313" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B314" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="C314" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="D314" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E314" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B315" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C315" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D315" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="E315" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B316" t="s">
         <v>285</v>
@@ -6801,7 +6815,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B317" t="s">
         <v>285</v>
@@ -6818,24 +6832,24 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B318" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C318" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D318" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E318" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B319" t="s">
         <v>285</v>
@@ -6852,7 +6866,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B320" t="s">
         <v>285</v>
@@ -6869,24 +6883,24 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B321" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C321" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D321" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E321" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B322" t="s">
         <v>285</v>
@@ -6903,188 +6917,256 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B323" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C323" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D323" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E323" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B324" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C324" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="D324" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E324" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B325" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C325" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D325" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E325" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B326" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C326" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D326" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E326" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B327" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C327" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D327" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E327" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="B328" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="C328" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D328" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E328" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B329" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="C329" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="D329" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="E329" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B330" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C330" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="D330" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E330" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B331" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C331" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D331" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E331" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B332" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="C332" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="D332" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="E332" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>302</v>
+      </c>
+      <c r="B333" t="s">
+        <v>248</v>
+      </c>
+      <c r="C333" t="s">
+        <v>248</v>
+      </c>
+      <c r="D333" t="s">
+        <v>248</v>
+      </c>
+      <c r="E333" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>303</v>
+      </c>
+      <c r="B334" t="s">
+        <v>303</v>
+      </c>
+      <c r="C334" t="s">
+        <v>247</v>
+      </c>
+      <c r="D334" t="s">
+        <v>303</v>
+      </c>
+      <c r="E334" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>304</v>
+      </c>
+      <c r="B335" t="s">
+        <v>304</v>
+      </c>
+      <c r="C335" t="s">
+        <v>304</v>
+      </c>
+      <c r="D335" t="s">
+        <v>304</v>
+      </c>
+      <c r="E335" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>305</v>
+      </c>
+      <c r="B336" t="s">
+        <v>305</v>
+      </c>
+      <c r="C336" t="s">
+        <v>305</v>
+      </c>
+      <c r="D336" t="s">
+        <v>305</v>
+      </c>
+      <c r="E336" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>306</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B337" t="s">
         <v>306</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C337" t="s">
         <v>306</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D337" t="s">
         <v>306</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E337" t="s">
         <v>306</v>
       </c>
     </row>

--- a/Data/ei_iw_geo_mapping.xlsx
+++ b/Data/ei_iw_geo_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\Regioinvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93059AF5-79A6-4314-8FF1-84FDFB22EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC74D4-4000-4CC3-ABC1-78A70F42A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="343">
   <si>
     <t>AE</t>
   </si>
@@ -1062,6 +1062,9 @@
   </si>
   <si>
     <t>VC</t>
+  </si>
+  <si>
+    <t>WS</t>
   </si>
 </sst>
 </file>
@@ -1433,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8BF03-FE90-413A-BA68-8F3BBE4EDF18}">
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7087,86 +7090,103 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="B333" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="C333" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="D333" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="E333" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B334" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="C334" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D334" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="E334" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C335" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="D335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
+        <v>305</v>
+      </c>
+      <c r="B337" t="s">
+        <v>305</v>
+      </c>
+      <c r="C337" t="s">
+        <v>305</v>
+      </c>
+      <c r="D337" t="s">
+        <v>305</v>
+      </c>
+      <c r="E337" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>306</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>306</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C338" t="s">
         <v>306</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D338" t="s">
         <v>306</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E338" t="s">
         <v>306</v>
       </c>
     </row>

--- a/Data/ei_iw_geo_mapping.xlsx
+++ b/Data/ei_iw_geo_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\Regioinvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC74D4-4000-4CC3-ABC1-78A70F42A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E95123-13AF-42DC-AEA2-4B38B76D726D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1438,9 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8BF03-FE90-413A-BA68-8F3BBE4EDF18}">
   <dimension ref="A1:E338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B319" sqref="B319"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1486,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -1520,7 +1518,7 @@
         <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="D5" t="s">
         <v>317</v>
@@ -1724,7 +1722,7 @@
         <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="D17" t="s">
         <v>319</v>
@@ -1775,7 +1773,7 @@
         <v>320</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D20" t="s">
         <v>320</v>
@@ -2438,7 +2436,7 @@
         <v>322</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="D59" t="s">
         <v>322</v>
@@ -2710,7 +2708,7 @@
         <v>323</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="D75" t="s">
         <v>323</v>
@@ -3543,7 +3541,7 @@
         <v>252</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c r="D124" t="s">
         <v>252</v>
@@ -3560,7 +3558,7 @@
         <v>114</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="D125" t="s">
         <v>114</v>
@@ -3713,7 +3711,7 @@
         <v>123</v>
       </c>
       <c r="C134" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="D134" t="s">
         <v>123</v>
@@ -3883,7 +3881,7 @@
         <v>324</v>
       </c>
       <c r="C144" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="D144" t="s">
         <v>324</v>
@@ -4019,7 +4017,7 @@
         <v>339</v>
       </c>
       <c r="C152" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="D152" t="s">
         <v>339</v>
@@ -4070,7 +4068,7 @@
         <v>325</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="D155" t="s">
         <v>325</v>
@@ -4084,7 +4082,7 @@
         <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C156" t="s">
         <v>140</v>
@@ -4325,7 +4323,7 @@
         <v>154</v>
       </c>
       <c r="C170" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="D170" t="s">
         <v>154</v>
@@ -5039,7 +5037,7 @@
         <v>196</v>
       </c>
       <c r="C212" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="D212" t="s">
         <v>196</v>
@@ -5090,7 +5088,7 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="D215" t="s">
         <v>199</v>
@@ -5209,7 +5207,7 @@
         <v>206</v>
       </c>
       <c r="C222" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D222" t="s">
         <v>206</v>
@@ -5243,7 +5241,7 @@
         <v>326</v>
       </c>
       <c r="C224" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="D224" t="s">
         <v>326</v>
@@ -5260,7 +5258,7 @@
         <v>208</v>
       </c>
       <c r="C225" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="D225" t="s">
         <v>208</v>
@@ -5277,7 +5275,7 @@
         <v>340</v>
       </c>
       <c r="C226" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="D226" t="s">
         <v>340</v>
@@ -5311,7 +5309,7 @@
         <v>327</v>
       </c>
       <c r="C228" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="D228" t="s">
         <v>327</v>
@@ -5379,7 +5377,7 @@
         <v>213</v>
       </c>
       <c r="C232" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="D232" t="s">
         <v>213</v>
@@ -5481,7 +5479,7 @@
         <v>328</v>
       </c>
       <c r="C238" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="D238" t="s">
         <v>328</v>
@@ -5532,7 +5530,7 @@
         <v>329</v>
       </c>
       <c r="C241" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="D241" t="s">
         <v>329</v>
@@ -5549,7 +5547,7 @@
         <v>330</v>
       </c>
       <c r="C242" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="D242" t="s">
         <v>330</v>
@@ -5566,7 +5564,7 @@
         <v>221</v>
       </c>
       <c r="C243" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D243" t="s">
         <v>221</v>
@@ -5617,7 +5615,7 @@
         <v>331</v>
       </c>
       <c r="C246" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="D246" t="s">
         <v>331</v>
@@ -5855,7 +5853,7 @@
         <v>236</v>
       </c>
       <c r="C260" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D260" t="s">
         <v>236</v>
@@ -6025,7 +6023,7 @@
         <v>245</v>
       </c>
       <c r="C270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D270" t="s">
         <v>245</v>
@@ -6297,7 +6295,7 @@
         <v>260</v>
       </c>
       <c r="C286" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D286" t="s">
         <v>260</v>
@@ -6331,7 +6329,7 @@
         <v>247</v>
       </c>
       <c r="C288" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="D288" t="s">
         <v>333</v>
@@ -6450,7 +6448,7 @@
         <v>334</v>
       </c>
       <c r="C295" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="D295" t="s">
         <v>334</v>
@@ -6501,7 +6499,7 @@
         <v>270</v>
       </c>
       <c r="C298" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="D298" t="s">
         <v>270</v>
@@ -6518,7 +6516,7 @@
         <v>335</v>
       </c>
       <c r="C299" t="s">
-        <v>246</v>
+        <v>335</v>
       </c>
       <c r="D299" t="s">
         <v>335</v>
@@ -6569,7 +6567,7 @@
         <v>273</v>
       </c>
       <c r="C302" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D302" t="s">
         <v>273</v>
@@ -6586,7 +6584,7 @@
         <v>336</v>
       </c>
       <c r="C303" t="s">
-        <v>247</v>
+        <v>336</v>
       </c>
       <c r="D303" t="s">
         <v>336</v>
@@ -6756,7 +6754,7 @@
         <v>337</v>
       </c>
       <c r="C313" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="D313" t="s">
         <v>337</v>
@@ -6994,7 +6992,7 @@
         <v>297</v>
       </c>
       <c r="C327" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="D327" t="s">
         <v>297</v>
@@ -7096,13 +7094,13 @@
         <v>342</v>
       </c>
       <c r="C333" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D333" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="E333" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -7130,7 +7128,7 @@
         <v>303</v>
       </c>
       <c r="C335" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="D335" t="s">
         <v>303</v>

--- a/Data/ei_iw_geo_mapping.xlsx
+++ b/Data/ei_iw_geo_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\Regioinvent\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\Regioinvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E95123-13AF-42DC-AEA2-4B38B76D726D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC769EB-CC73-400F-A4BF-DF1677A5D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{91CF7D30-F020-4F0F-B7E1-F06EBC5EAD55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="388">
   <si>
     <t>AE</t>
   </si>
@@ -1065,6 +1065,141 @@
   </si>
   <si>
     <t>WS</t>
+  </si>
+  <si>
+    <t>CAZ</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>OAS</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>APAC</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>RSAM</t>
+  </si>
+  <si>
+    <t>RCAM</t>
+  </si>
+  <si>
+    <t>INDO</t>
+  </si>
+  <si>
+    <t>RSAF</t>
+  </si>
+  <si>
+    <t>CEU</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>NAF</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>RSAS</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>SEAS</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>JAP</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>EEU</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>ODA</t>
+  </si>
+  <si>
+    <t>SKO</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -1436,13 +1571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8BF03-FE90-413A-BA68-8F3BBE4EDF18}">
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F375" sqref="F375"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>307</v>
       </c>
@@ -1459,7 +1596,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>338</v>
       </c>
@@ -1476,7 +1613,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -1510,7 +1647,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -1527,7 +1664,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1663,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>318</v>
       </c>
@@ -1680,7 +1817,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1714,7 +1851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -1731,7 +1868,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1748,7 +1885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1902,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>320</v>
       </c>
@@ -1782,7 +1919,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1799,7 +1936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1816,7 +1953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1833,7 +1970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1850,7 +1987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +2004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +2021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1901,7 +2038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1918,7 +2055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +2072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1952,7 +2089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1969,7 +2106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1986,7 +2123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2003,7 +2140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2020,7 +2157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2037,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2054,7 +2191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2071,7 +2208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -2088,7 +2225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -2105,7 +2242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2122,7 +2259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2139,7 +2276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2156,7 +2293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2173,7 +2310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -2190,7 +2327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2207,7 +2344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2224,7 +2361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2241,7 +2378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -2258,7 +2395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2275,7 +2412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -2292,7 +2429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -2309,7 +2446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -2326,7 +2463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2343,7 +2480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2360,7 +2497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -2377,7 +2514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>321</v>
       </c>
@@ -2394,7 +2531,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2411,7 +2548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2428,7 +2565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>322</v>
       </c>
@@ -2445,7 +2582,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -2462,7 +2599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2479,7 +2616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -2496,7 +2633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -2513,7 +2650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -2530,7 +2667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -2547,7 +2684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -2581,7 +2718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -2598,7 +2735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -2615,7 +2752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -2649,7 +2786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -2666,7 +2803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2683,7 +2820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -2700,7 +2837,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>323</v>
       </c>
@@ -2717,7 +2854,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -2734,7 +2871,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -2751,7 +2888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -2768,7 +2905,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>68</v>
       </c>
@@ -2785,7 +2922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2802,7 +2939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -2819,7 +2956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>71</v>
       </c>
@@ -2836,7 +2973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -2853,7 +2990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -2870,7 +3007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -2887,7 +3024,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -2904,7 +3041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -2921,7 +3058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -2938,7 +3075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -2955,7 +3092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -2972,7 +3109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -2989,7 +3126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -3006,7 +3143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -3023,7 +3160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -3040,7 +3177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -3057,7 +3194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -3074,7 +3211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -3091,7 +3228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -3108,7 +3245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>88</v>
       </c>
@@ -3125,7 +3262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>89</v>
       </c>
@@ -3142,7 +3279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>90</v>
       </c>
@@ -3159,7 +3296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>91</v>
       </c>
@@ -3176,7 +3313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>92</v>
       </c>
@@ -3193,7 +3330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>93</v>
       </c>
@@ -3210,7 +3347,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -3227,7 +3364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -3244,7 +3381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -3261,7 +3398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -3278,7 +3415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -3295,7 +3432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -3312,7 +3449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -3329,7 +3466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -3346,7 +3483,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>102</v>
       </c>
@@ -3363,7 +3500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -3380,7 +3517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -3397,7 +3534,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>105</v>
       </c>
@@ -3414,7 +3551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>106</v>
       </c>
@@ -3431,7 +3568,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -3448,7 +3585,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -3465,7 +3602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>109</v>
       </c>
@@ -3482,7 +3619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -3499,7 +3636,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -3516,7 +3653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -3533,7 +3670,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -3550,7 +3687,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -3567,7 +3704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>115</v>
       </c>
@@ -3584,7 +3721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -3601,7 +3738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>117</v>
       </c>
@@ -3618,7 +3755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -3635,7 +3772,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>119</v>
       </c>
@@ -3652,7 +3789,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>120</v>
       </c>
@@ -3669,7 +3806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -3686,7 +3823,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -3703,7 +3840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -3720,7 +3857,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>124</v>
       </c>
@@ -3737,7 +3874,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>125</v>
       </c>
@@ -3754,7 +3891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -3771,7 +3908,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -3788,7 +3925,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>128</v>
       </c>
@@ -3805,7 +3942,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>129</v>
       </c>
@@ -3822,7 +3959,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -3839,7 +3976,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>308</v>
       </c>
@@ -3856,7 +3993,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -3873,7 +4010,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>324</v>
       </c>
@@ -3890,7 +4027,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>132</v>
       </c>
@@ -3907,7 +4044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -3924,7 +4061,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>134</v>
       </c>
@@ -3941,7 +4078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>135</v>
       </c>
@@ -3958,7 +4095,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>136</v>
       </c>
@@ -3975,7 +4112,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>137</v>
       </c>
@@ -3992,7 +4129,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -4009,7 +4146,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>339</v>
       </c>
@@ -4026,7 +4163,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>138</v>
       </c>
@@ -4043,7 +4180,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>139</v>
       </c>
@@ -4060,7 +4197,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>325</v>
       </c>
@@ -4077,7 +4214,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -4094,7 +4231,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>141</v>
       </c>
@@ -4111,7 +4248,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>142</v>
       </c>
@@ -4128,7 +4265,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>143</v>
       </c>
@@ -4145,7 +4282,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -4162,7 +4299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -4179,7 +4316,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>146</v>
       </c>
@@ -4196,7 +4333,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>147</v>
       </c>
@@ -4213,7 +4350,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>148</v>
       </c>
@@ -4230,7 +4367,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>149</v>
       </c>
@@ -4247,7 +4384,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>150</v>
       </c>
@@ -4264,7 +4401,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>151</v>
       </c>
@@ -4281,7 +4418,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -4298,7 +4435,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>153</v>
       </c>
@@ -4315,7 +4452,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>154</v>
       </c>
@@ -4332,7 +4469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>155</v>
       </c>
@@ -4349,7 +4486,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>156</v>
       </c>
@@ -4366,7 +4503,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>157</v>
       </c>
@@ -4383,7 +4520,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>158</v>
       </c>
@@ -4400,7 +4537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>159</v>
       </c>
@@ -4417,7 +4554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>160</v>
       </c>
@@ -4434,7 +4571,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>161</v>
       </c>
@@ -4451,7 +4588,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>162</v>
       </c>
@@ -4468,7 +4605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>163</v>
       </c>
@@ -4485,7 +4622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>164</v>
       </c>
@@ -4502,7 +4639,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>165</v>
       </c>
@@ -4519,7 +4656,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>166</v>
       </c>
@@ -4536,7 +4673,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>167</v>
       </c>
@@ -4553,7 +4690,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -4570,7 +4707,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -4587,7 +4724,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>170</v>
       </c>
@@ -4604,7 +4741,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>171</v>
       </c>
@@ -4621,7 +4758,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>172</v>
       </c>
@@ -4638,7 +4775,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>173</v>
       </c>
@@ -4655,7 +4792,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>174</v>
       </c>
@@ -4672,7 +4809,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>175</v>
       </c>
@@ -4689,7 +4826,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>176</v>
       </c>
@@ -4706,7 +4843,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>177</v>
       </c>
@@ -4723,7 +4860,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>178</v>
       </c>
@@ -4740,7 +4877,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>179</v>
       </c>
@@ -4757,7 +4894,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>180</v>
       </c>
@@ -4774,7 +4911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>181</v>
       </c>
@@ -4791,7 +4928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -4808,7 +4945,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -4825,7 +4962,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -4842,7 +4979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>185</v>
       </c>
@@ -4859,7 +4996,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>186</v>
       </c>
@@ -4876,7 +5013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -4893,7 +5030,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>188</v>
       </c>
@@ -4910,7 +5047,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>189</v>
       </c>
@@ -4927,7 +5064,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>190</v>
       </c>
@@ -4944,7 +5081,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>191</v>
       </c>
@@ -4961,7 +5098,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>192</v>
       </c>
@@ -4978,7 +5115,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>193</v>
       </c>
@@ -4995,7 +5132,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>194</v>
       </c>
@@ -5012,7 +5149,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>195</v>
       </c>
@@ -5029,7 +5166,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>196</v>
       </c>
@@ -5046,7 +5183,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>197</v>
       </c>
@@ -5063,7 +5200,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>198</v>
       </c>
@@ -5080,7 +5217,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>199</v>
       </c>
@@ -5097,7 +5234,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>200</v>
       </c>
@@ -5114,7 +5251,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>201</v>
       </c>
@@ -5131,7 +5268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>202</v>
       </c>
@@ -5148,7 +5285,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>203</v>
       </c>
@@ -5165,7 +5302,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>204</v>
       </c>
@@ -5182,7 +5319,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>205</v>
       </c>
@@ -5199,7 +5336,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>206</v>
       </c>
@@ -5216,7 +5353,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>207</v>
       </c>
@@ -5233,7 +5370,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>326</v>
       </c>
@@ -5250,7 +5387,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>208</v>
       </c>
@@ -5267,7 +5404,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>340</v>
       </c>
@@ -5284,7 +5421,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>209</v>
       </c>
@@ -5301,7 +5438,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>327</v>
       </c>
@@ -5318,7 +5455,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -5335,7 +5472,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -5352,7 +5489,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>212</v>
       </c>
@@ -5369,7 +5506,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>213</v>
       </c>
@@ -5386,7 +5523,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>214</v>
       </c>
@@ -5403,7 +5540,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>215</v>
       </c>
@@ -5420,7 +5557,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>216</v>
       </c>
@@ -5437,7 +5574,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>217</v>
       </c>
@@ -5454,7 +5591,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>218</v>
       </c>
@@ -5471,7 +5608,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>328</v>
       </c>
@@ -5488,7 +5625,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>219</v>
       </c>
@@ -5505,7 +5642,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>220</v>
       </c>
@@ -5522,7 +5659,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>329</v>
       </c>
@@ -5539,7 +5676,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>330</v>
       </c>
@@ -5556,7 +5693,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>221</v>
       </c>
@@ -5573,7 +5710,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>222</v>
       </c>
@@ -5590,7 +5727,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>223</v>
       </c>
@@ -5607,7 +5744,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>331</v>
       </c>
@@ -5624,7 +5761,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>224</v>
       </c>
@@ -5641,7 +5778,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>225</v>
       </c>
@@ -5658,7 +5795,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>226</v>
       </c>
@@ -5675,7 +5812,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>227</v>
       </c>
@@ -5692,7 +5829,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>228</v>
       </c>
@@ -5709,7 +5846,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>229</v>
       </c>
@@ -5726,7 +5863,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>230</v>
       </c>
@@ -5743,7 +5880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>231</v>
       </c>
@@ -5760,7 +5897,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>232</v>
       </c>
@@ -5777,7 +5914,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>233</v>
       </c>
@@ -5794,7 +5931,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>234</v>
       </c>
@@ -5811,7 +5948,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>235</v>
       </c>
@@ -5828,7 +5965,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>311</v>
       </c>
@@ -5845,7 +5982,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>236</v>
       </c>
@@ -5862,7 +5999,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>237</v>
       </c>
@@ -5879,7 +6016,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>238</v>
       </c>
@@ -5896,7 +6033,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>239</v>
       </c>
@@ -5913,7 +6050,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>240</v>
       </c>
@@ -5930,7 +6067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>241</v>
       </c>
@@ -5947,7 +6084,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>242</v>
       </c>
@@ -5964,7 +6101,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>332</v>
       </c>
@@ -5981,7 +6118,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>243</v>
       </c>
@@ -5998,7 +6135,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>244</v>
       </c>
@@ -6015,7 +6152,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>245</v>
       </c>
@@ -6032,7 +6169,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>246</v>
       </c>
@@ -6049,7 +6186,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>247</v>
       </c>
@@ -6066,7 +6203,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>248</v>
       </c>
@@ -6083,7 +6220,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>249</v>
       </c>
@@ -6100,7 +6237,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>250</v>
       </c>
@@ -6117,7 +6254,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>251</v>
       </c>
@@ -6134,7 +6271,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>252</v>
       </c>
@@ -6151,7 +6288,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>253</v>
       </c>
@@ -6168,7 +6305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>254</v>
       </c>
@@ -6185,7 +6322,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>255</v>
       </c>
@@ -6202,7 +6339,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>256</v>
       </c>
@@ -6219,7 +6356,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>257</v>
       </c>
@@ -6236,7 +6373,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>258</v>
       </c>
@@ -6253,7 +6390,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>259</v>
       </c>
@@ -6270,7 +6407,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -6287,7 +6424,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>260</v>
       </c>
@@ -6304,7 +6441,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>261</v>
       </c>
@@ -6321,7 +6458,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>333</v>
       </c>
@@ -6338,7 +6475,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>262</v>
       </c>
@@ -6355,7 +6492,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -6372,7 +6509,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>264</v>
       </c>
@@ -6389,7 +6526,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>265</v>
       </c>
@@ -6406,7 +6543,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>266</v>
       </c>
@@ -6423,7 +6560,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>267</v>
       </c>
@@ -6440,7 +6577,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>334</v>
       </c>
@@ -6457,7 +6594,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>268</v>
       </c>
@@ -6474,7 +6611,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>269</v>
       </c>
@@ -6491,7 +6628,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>270</v>
       </c>
@@ -6508,7 +6645,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>335</v>
       </c>
@@ -6525,7 +6662,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>271</v>
       </c>
@@ -6542,7 +6679,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>272</v>
       </c>
@@ -6559,7 +6696,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>273</v>
       </c>
@@ -6576,7 +6713,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>336</v>
       </c>
@@ -6593,7 +6730,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>274</v>
       </c>
@@ -6610,7 +6747,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>275</v>
       </c>
@@ -6627,7 +6764,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>276</v>
       </c>
@@ -6644,7 +6781,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>277</v>
       </c>
@@ -6661,7 +6798,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>278</v>
       </c>
@@ -6678,7 +6815,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>279</v>
       </c>
@@ -6695,7 +6832,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>280</v>
       </c>
@@ -6712,7 +6849,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>281</v>
       </c>
@@ -6729,7 +6866,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>282</v>
       </c>
@@ -6746,7 +6883,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>337</v>
       </c>
@@ -6763,7 +6900,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>283</v>
       </c>
@@ -6780,7 +6917,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>284</v>
       </c>
@@ -6797,7 +6934,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>285</v>
       </c>
@@ -6814,7 +6951,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>286</v>
       </c>
@@ -6831,7 +6968,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>287</v>
       </c>
@@ -6848,7 +6985,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>288</v>
       </c>
@@ -6865,7 +7002,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>289</v>
       </c>
@@ -6882,7 +7019,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>290</v>
       </c>
@@ -6899,7 +7036,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>292</v>
       </c>
@@ -6916,7 +7053,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>293</v>
       </c>
@@ -6933,7 +7070,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>294</v>
       </c>
@@ -6950,7 +7087,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>295</v>
       </c>
@@ -6967,7 +7104,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>296</v>
       </c>
@@ -6984,7 +7121,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>297</v>
       </c>
@@ -7001,7 +7138,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>341</v>
       </c>
@@ -7018,7 +7155,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>298</v>
       </c>
@@ -7035,7 +7172,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>299</v>
       </c>
@@ -7052,7 +7189,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>300</v>
       </c>
@@ -7069,7 +7206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>301</v>
       </c>
@@ -7086,7 +7223,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>342</v>
       </c>
@@ -7103,7 +7240,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>302</v>
       </c>
@@ -7120,7 +7257,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>303</v>
       </c>
@@ -7137,7 +7274,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>304</v>
       </c>
@@ -7154,7 +7291,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>305</v>
       </c>
@@ -7171,7 +7308,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>306</v>
       </c>
@@ -7186,6 +7323,771 @@
       </c>
       <c r="E338" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>343</v>
+      </c>
+      <c r="B339" t="s">
+        <v>50</v>
+      </c>
+      <c r="C339" t="s">
+        <v>50</v>
+      </c>
+      <c r="D339" t="s">
+        <v>50</v>
+      </c>
+      <c r="E339" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>344</v>
+      </c>
+      <c r="B340" t="s">
+        <v>70</v>
+      </c>
+      <c r="C340" t="s">
+        <v>70</v>
+      </c>
+      <c r="D340" t="s">
+        <v>70</v>
+      </c>
+      <c r="E340" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>345</v>
+      </c>
+      <c r="B341" t="s">
+        <v>248</v>
+      </c>
+      <c r="C341" t="s">
+        <v>248</v>
+      </c>
+      <c r="D341" t="s">
+        <v>248</v>
+      </c>
+      <c r="E341" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>346</v>
+      </c>
+      <c r="B342" t="s">
+        <v>200</v>
+      </c>
+      <c r="C342" t="s">
+        <v>200</v>
+      </c>
+      <c r="D342" t="s">
+        <v>200</v>
+      </c>
+      <c r="E342" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>347</v>
+      </c>
+      <c r="B343" t="s">
+        <v>155</v>
+      </c>
+      <c r="C343" t="s">
+        <v>155</v>
+      </c>
+      <c r="D343" t="s">
+        <v>155</v>
+      </c>
+      <c r="E343" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>348</v>
+      </c>
+      <c r="B344" t="s">
+        <v>252</v>
+      </c>
+      <c r="C344" t="s">
+        <v>252</v>
+      </c>
+      <c r="D344" t="s">
+        <v>252</v>
+      </c>
+      <c r="E344" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>349</v>
+      </c>
+      <c r="B345" t="s">
+        <v>253</v>
+      </c>
+      <c r="C345" t="s">
+        <v>247</v>
+      </c>
+      <c r="D345" t="s">
+        <v>247</v>
+      </c>
+      <c r="E345" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>350</v>
+      </c>
+      <c r="B346" t="s">
+        <v>248</v>
+      </c>
+      <c r="C346" t="s">
+        <v>248</v>
+      </c>
+      <c r="D346" t="s">
+        <v>248</v>
+      </c>
+      <c r="E346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>351</v>
+      </c>
+      <c r="B347" t="s">
+        <v>247</v>
+      </c>
+      <c r="C347" t="s">
+        <v>247</v>
+      </c>
+      <c r="D347" t="s">
+        <v>247</v>
+      </c>
+      <c r="E347" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>352</v>
+      </c>
+      <c r="B348" t="s">
+        <v>257</v>
+      </c>
+      <c r="C348" t="s">
+        <v>257</v>
+      </c>
+      <c r="D348" t="s">
+        <v>257</v>
+      </c>
+      <c r="E348" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>353</v>
+      </c>
+      <c r="B349" t="s">
+        <v>246</v>
+      </c>
+      <c r="C349" t="s">
+        <v>246</v>
+      </c>
+      <c r="D349" t="s">
+        <v>246</v>
+      </c>
+      <c r="E349" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>354</v>
+      </c>
+      <c r="B350" t="s">
+        <v>285</v>
+      </c>
+      <c r="C350" t="s">
+        <v>285</v>
+      </c>
+      <c r="D350" t="s">
+        <v>285</v>
+      </c>
+      <c r="E350" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>355</v>
+      </c>
+      <c r="B351" t="s">
+        <v>247</v>
+      </c>
+      <c r="C351" t="s">
+        <v>247</v>
+      </c>
+      <c r="D351" t="s">
+        <v>247</v>
+      </c>
+      <c r="E351" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>356</v>
+      </c>
+      <c r="B352" t="s">
+        <v>309</v>
+      </c>
+      <c r="C352" t="s">
+        <v>309</v>
+      </c>
+      <c r="D352" t="s">
+        <v>309</v>
+      </c>
+      <c r="E352" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>357</v>
+      </c>
+      <c r="B353" t="s">
+        <v>252</v>
+      </c>
+      <c r="C353" t="s">
+        <v>252</v>
+      </c>
+      <c r="D353" t="s">
+        <v>252</v>
+      </c>
+      <c r="E353" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>358</v>
+      </c>
+      <c r="B354" t="s">
+        <v>252</v>
+      </c>
+      <c r="C354" t="s">
+        <v>252</v>
+      </c>
+      <c r="D354" t="s">
+        <v>252</v>
+      </c>
+      <c r="E354" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>359</v>
+      </c>
+      <c r="B355" t="s">
+        <v>152</v>
+      </c>
+      <c r="C355" t="s">
+        <v>152</v>
+      </c>
+      <c r="D355" t="s">
+        <v>152</v>
+      </c>
+      <c r="E355" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>360</v>
+      </c>
+      <c r="B356" t="s">
+        <v>246</v>
+      </c>
+      <c r="C356" t="s">
+        <v>246</v>
+      </c>
+      <c r="D356" t="s">
+        <v>246</v>
+      </c>
+      <c r="E356" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>361</v>
+      </c>
+      <c r="B357" t="s">
+        <v>248</v>
+      </c>
+      <c r="C357" t="s">
+        <v>248</v>
+      </c>
+      <c r="D357" t="s">
+        <v>248</v>
+      </c>
+      <c r="E357" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>362</v>
+      </c>
+      <c r="B358" t="s">
+        <v>304</v>
+      </c>
+      <c r="C358" t="s">
+        <v>304</v>
+      </c>
+      <c r="D358" t="s">
+        <v>304</v>
+      </c>
+      <c r="E358" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>363</v>
+      </c>
+      <c r="B359" t="s">
+        <v>155</v>
+      </c>
+      <c r="C359" t="s">
+        <v>155</v>
+      </c>
+      <c r="D359" t="s">
+        <v>155</v>
+      </c>
+      <c r="E359" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>364</v>
+      </c>
+      <c r="B360" t="s">
+        <v>16</v>
+      </c>
+      <c r="C360" t="s">
+        <v>16</v>
+      </c>
+      <c r="D360" t="s">
+        <v>16</v>
+      </c>
+      <c r="E360" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>365</v>
+      </c>
+      <c r="B361" t="s">
+        <v>247</v>
+      </c>
+      <c r="C361" t="s">
+        <v>247</v>
+      </c>
+      <c r="D361" t="s">
+        <v>247</v>
+      </c>
+      <c r="E361" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>366</v>
+      </c>
+      <c r="B362" t="s">
+        <v>246</v>
+      </c>
+      <c r="C362" t="s">
+        <v>246</v>
+      </c>
+      <c r="D362" t="s">
+        <v>246</v>
+      </c>
+      <c r="E362" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>367</v>
+      </c>
+      <c r="B363" t="s">
+        <v>70</v>
+      </c>
+      <c r="C363" t="s">
+        <v>70</v>
+      </c>
+      <c r="D363" t="s">
+        <v>70</v>
+      </c>
+      <c r="E363" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>368</v>
+      </c>
+      <c r="B364" t="s">
+        <v>246</v>
+      </c>
+      <c r="C364" t="s">
+        <v>246</v>
+      </c>
+      <c r="D364" t="s">
+        <v>246</v>
+      </c>
+      <c r="E364" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>369</v>
+      </c>
+      <c r="B365" t="s">
+        <v>280</v>
+      </c>
+      <c r="C365" t="s">
+        <v>280</v>
+      </c>
+      <c r="D365" t="s">
+        <v>280</v>
+      </c>
+      <c r="E365" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>370</v>
+      </c>
+      <c r="B366" t="s">
+        <v>247</v>
+      </c>
+      <c r="C366" t="s">
+        <v>247</v>
+      </c>
+      <c r="D366" t="s">
+        <v>247</v>
+      </c>
+      <c r="E366" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>371</v>
+      </c>
+      <c r="B367" t="s">
+        <v>257</v>
+      </c>
+      <c r="C367" t="s">
+        <v>257</v>
+      </c>
+      <c r="D367" t="s">
+        <v>257</v>
+      </c>
+      <c r="E367" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>372</v>
+      </c>
+      <c r="B368" t="s">
+        <v>247</v>
+      </c>
+      <c r="C368" t="s">
+        <v>247</v>
+      </c>
+      <c r="D368" t="s">
+        <v>247</v>
+      </c>
+      <c r="E368" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>373</v>
+      </c>
+      <c r="B369" t="s">
+        <v>205</v>
+      </c>
+      <c r="C369" t="s">
+        <v>205</v>
+      </c>
+      <c r="D369" t="s">
+        <v>205</v>
+      </c>
+      <c r="E369" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>374</v>
+      </c>
+      <c r="B370" t="s">
+        <v>200</v>
+      </c>
+      <c r="C370" t="s">
+        <v>200</v>
+      </c>
+      <c r="D370" t="s">
+        <v>200</v>
+      </c>
+      <c r="E370" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>375</v>
+      </c>
+      <c r="B371" t="s">
+        <v>246</v>
+      </c>
+      <c r="C371" t="s">
+        <v>246</v>
+      </c>
+      <c r="D371" t="s">
+        <v>246</v>
+      </c>
+      <c r="E371" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>376</v>
+      </c>
+      <c r="B372" t="s">
+        <v>276</v>
+      </c>
+      <c r="C372" t="s">
+        <v>276</v>
+      </c>
+      <c r="D372" t="s">
+        <v>276</v>
+      </c>
+      <c r="E372" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>377</v>
+      </c>
+      <c r="B373" t="s">
+        <v>50</v>
+      </c>
+      <c r="C373" t="s">
+        <v>50</v>
+      </c>
+      <c r="D373" t="s">
+        <v>50</v>
+      </c>
+      <c r="E373" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>378</v>
+      </c>
+      <c r="B374" t="s">
+        <v>223</v>
+      </c>
+      <c r="C374" t="s">
+        <v>223</v>
+      </c>
+      <c r="D374" t="s">
+        <v>223</v>
+      </c>
+      <c r="E374" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>379</v>
+      </c>
+      <c r="B375" t="s">
+        <v>246</v>
+      </c>
+      <c r="C375" t="s">
+        <v>246</v>
+      </c>
+      <c r="D375" t="s">
+        <v>246</v>
+      </c>
+      <c r="E375" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>380</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>381</v>
+      </c>
+      <c r="B377" t="s">
+        <v>252</v>
+      </c>
+      <c r="C377" t="s">
+        <v>252</v>
+      </c>
+      <c r="D377" t="s">
+        <v>252</v>
+      </c>
+      <c r="E377" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>382</v>
+      </c>
+      <c r="B378" t="s">
+        <v>70</v>
+      </c>
+      <c r="C378" t="s">
+        <v>70</v>
+      </c>
+      <c r="D378" t="s">
+        <v>70</v>
+      </c>
+      <c r="E378" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>383</v>
+      </c>
+      <c r="B379" t="s">
+        <v>248</v>
+      </c>
+      <c r="C379" t="s">
+        <v>248</v>
+      </c>
+      <c r="D379" t="s">
+        <v>248</v>
+      </c>
+      <c r="E379" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>384</v>
+      </c>
+      <c r="B380" t="s">
+        <v>247</v>
+      </c>
+      <c r="C380" t="s">
+        <v>247</v>
+      </c>
+      <c r="D380" t="s">
+        <v>247</v>
+      </c>
+      <c r="E380" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>385</v>
+      </c>
+      <c r="B381" t="s">
+        <v>247</v>
+      </c>
+      <c r="C381" t="s">
+        <v>247</v>
+      </c>
+      <c r="D381" t="s">
+        <v>247</v>
+      </c>
+      <c r="E381" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>386</v>
+      </c>
+      <c r="B382" t="s">
+        <v>205</v>
+      </c>
+      <c r="C382" t="s">
+        <v>205</v>
+      </c>
+      <c r="D382" t="s">
+        <v>205</v>
+      </c>
+      <c r="E382" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>387</v>
+      </c>
+      <c r="B383" t="s">
+        <v>134</v>
+      </c>
+      <c r="C383" t="s">
+        <v>134</v>
+      </c>
+      <c r="D383" t="s">
+        <v>134</v>
+      </c>
+      <c r="E383" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
